--- a/Calculos Excel/Validacion cuestionario.xlsx
+++ b/Calculos Excel/Validacion cuestionario.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b6fe671ebe24109/Tesis/Calculos excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Tesis_bi_microclin\Calculos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D19590AD-4582-41B2-980D-A3544B9E631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5818FEB4-D1C1-4993-A4AE-4F8AF9A1126C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C7502-DF55-495F-B7C0-E2F3306B5441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E94B43F-7F38-4AB1-97AA-12D4A2F44FE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2E94B43F-7F38-4AB1-97AA-12D4A2F44FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Kendall" sheetId="4" r:id="rId1"/>
     <sheet name="Alfa" sheetId="3" r:id="rId2"/>
+    <sheet name="V-Aiken" sheetId="6" r:id="rId3"/>
+    <sheet name="Fleiss" sheetId="8" r:id="rId4"/>
+    <sheet name="Omega" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>P1</t>
   </si>
@@ -74,12 +77,24 @@
   <si>
     <t>P12</t>
   </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +112,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,25 +140,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,177 +489,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD69768-FF54-4B94-900F-D3DCAFB2C8D8}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="4.5546875" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" customWidth="1"/>
-    <col min="8" max="9" width="3.88671875" customWidth="1"/>
-    <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" customWidth="1"/>
+    <col min="1" max="12" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -633,98 +698,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EE98E6-403A-46CC-8F1A-666F96CC8573}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="4.6640625" customWidth="1"/>
+    <col min="1" max="12" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -735,10 +796,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -747,22 +808,22 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -800,12 +861,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -838,27 +899,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -867,16 +928,16 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -890,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -899,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -914,23 +975,1427 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9995B37-CBB4-4DE1-84C5-53B689C25CC0}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="15" width="5.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C2F3D1-2123-438B-A7F6-420125F06573}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A61ED86-F3C0-45DE-A080-2351F1C1F6DA}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="5.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>